--- a/templates/舊式報機單.xlsx
+++ b/templates/舊式報機單.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>快遞專區倉單</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -59,7 +59,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">單號
 </t>
@@ -142,7 +141,6 @@
         <b/>
         <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>電話
 (Tel No.)</t>
@@ -173,7 +171,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">關條碼
 </t>
@@ -286,6 +283,15 @@
   <si>
     <t>${table:data.IL_G1}</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.SPG_SPECIALGOODS}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">特貨
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -304,7 +310,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -323,13 +328,11 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -342,13 +345,11 @@
       <b/>
       <sz val="12"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -440,27 +441,93 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="3232" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -471,6 +538,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF99"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -805,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -830,54 +903,55 @@
     <col min="16" max="16" width="12.5" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="8"/>
+    <col min="19" max="19" width="32.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="19.5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:18" ht="19.5">
+    <row r="2" spans="1:19" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:18" ht="19.5">
+    <row r="3" spans="1:19" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,7 +959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="37.5">
+    <row r="4" spans="1:19" ht="37.5">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -922,7 +996,7 @@
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N4" s="7" t="s">
@@ -940,61 +1014,67 @@
       <c r="R4" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="S4" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="11" t="s">
         <v>42</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1006,8 +1086,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>AND(COUNTIF($B$5:$B$62731,B4)+COUNTIF($B$1:$B$4,B4)&gt;1,NOT(ISBLANK(B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:XFD1000">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
